--- a/paper_node_importance.xlsx
+++ b/paper_node_importance.xlsx
@@ -40,6 +40,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -99,8 +100,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -230,208 +235,208 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>10.9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>17.1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>14.9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>14.3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>10.1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>15.3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>9.2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>10.6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>12.2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>14.6</v>
+      <c r="B11" s="1" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>7.6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>15.2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>13.6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>9.3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>11.2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>11.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>10.8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>14.7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>13.4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>14.7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>10.4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>282.1</v>
       </c>
     </row>

--- a/paper_node_importance.xlsx
+++ b/paper_node_importance.xlsx
@@ -325,7 +325,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>146</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
